--- a/src/Gabriel/ML_Workbook_1/Findings/Multivariate Feature Ranking.xlsx
+++ b/src/Gabriel/ML_Workbook_1/Findings/Multivariate Feature Ranking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lag0" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,6 +2059,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition descending="1" ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2068,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:F50"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Gabriel/ML_Workbook_1/Findings/Multivariate Feature Ranking.xlsx
+++ b/src/Gabriel/ML_Workbook_1/Findings/Multivariate Feature Ranking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Lag0" sheetId="1" r:id="rId1"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,15 +1345,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
@@ -2792,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
